--- a/Sag_fault_calculation/line_data.xlsx
+++ b/Sag_fault_calculation/line_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kople\Documents\Personal Git repos\UM-coursework\Sag_fault_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8733BDD-6673-456A-8E6D-B267BBC6DF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93272297-5A7E-426D-B559-477F14B597E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="3456" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3828" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,6 +776,167 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.127</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>22</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.192</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>17</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.221</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>30</v>
+      </c>
+      <c r="G21" s="6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sag_fault_calculation/line_data.xlsx
+++ b/Sag_fault_calculation/line_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kople\Documents\Personal Git repos\UM-coursework\Sag_fault_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93272297-5A7E-426D-B559-477F14B597E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690A351D-EC99-4FB2-99E6-5CEA24397548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sag_fault_calculation/line_data.xlsx
+++ b/Sag_fault_calculation/line_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kople\Documents\Personal Git repos\UM-coursework\Sag_fault_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690A351D-EC99-4FB2-99E6-5CEA24397548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFBDA56-893D-4A19-B73E-93B1470C7864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sag_fault_calculation/line_data.xlsx
+++ b/Sag_fault_calculation/line_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kople\Documents\Personal Git repos\UM-coursework\Sag_fault_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFBDA56-893D-4A19-B73E-93B1470C7864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7A773-C6FD-49B7-A090-9C1B165B1B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
